--- a/reports/mutation-report.xlsx
+++ b/reports/mutation-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6336" uniqueCount="849">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -2694,6 +2694,10 @@
   </si>
   <si>
     <t>MutationReturnStmtCommand#org.apache.commons.math.analysis.interpolation.SplineInterpolator#lines 122-122#[return null;
+]</t>
+  </si>
+  <si>
+    <t>MutationReturnStmtCommand#org.apache.commons.math.analysis.interpolation.BicubicSplineInterpolatingFunction#lines 172-172#[return 0.0;
 ]</t>
   </si>
 </sst>
@@ -2739,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1570"/>
+  <dimension ref="A1:D1584"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -24725,6 +24729,202 @@
         <v>153</v>
       </c>
     </row>
+    <row r="1571">
+      <c r="A1571" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1571" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1571" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D1571" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1572" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1572" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D1572" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1573" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1573" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="D1573" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1574" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1574" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="D1574" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1575" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1575" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D1575" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1576" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1576" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D1576" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1577" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1577" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="D1577" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1578" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1578" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D1578" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1579" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1579" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D1579" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1580" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1580" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1580" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1581" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1581" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="D1581" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1582" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1582" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="D1582" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1583" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1583" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D1583" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1584" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="C1584" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1584" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
